--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiguan/Documents/website/guanh01.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{540090B2-79B8-0545-908D-D181B6D9FDDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3E39D251-0082-664E-B8D5-3BF0C7FC825B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
   </bookViews>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiguan/Documents/website/guanh01.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3E39D251-0082-664E-B8D5-3BF0C7FC825B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F07557-0C95-A74F-B990-F052F078483D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>pub_date</t>
   </si>
@@ -221,16 +221,31 @@
   </si>
   <si>
     <t>The ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (&lt;b&gt;ESEC/FSE&lt;/b&gt;), Sacramento, California, United States, November 2020. (acceptance rate: 101/360=28%) </t>
+  </si>
+  <si>
+    <t>An automatic synthesizer of advising tools for high performance computing</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Parallel and Distributed Systems (&lt;b&gt;TPDS&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>tpds</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9173796</t>
+  </si>
+  <si>
+    <t>https://2020.esec-fse.org/details/fse-2020-papers/7/HISyn-Human-Learning-Inspired-Natural-Language-Programming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +379,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val=".AppleSystemUIFont"/>
     </font>
   </fonts>
   <fills count="33">
@@ -707,9 +727,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,14 +1085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
@@ -1079,7 +1100,7 @@
     <col min="4" max="4" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,8 +1120,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>42522</v>
       </c>
       <c r="B2" t="s">
@@ -1119,8 +1140,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>42705</v>
       </c>
       <c r="B3" t="s">
@@ -1139,8 +1160,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>42736</v>
       </c>
       <c r="B4" t="s">
@@ -1159,8 +1180,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>43053</v>
       </c>
       <c r="B5" t="s">
@@ -1179,8 +1200,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>43132</v>
       </c>
       <c r="B6" t="s">
@@ -1199,8 +1220,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>43344</v>
       </c>
       <c r="B7" t="s">
@@ -1219,8 +1240,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>43405</v>
       </c>
       <c r="B8" t="s">
@@ -1239,8 +1260,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>43617</v>
       </c>
       <c r="B9" t="s">
@@ -1259,8 +1280,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>43627</v>
       </c>
       <c r="B10" t="s">
@@ -1279,8 +1300,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>43808</v>
       </c>
       <c r="B11" t="s">
@@ -1299,8 +1320,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>43808</v>
       </c>
       <c r="B12" t="s">
@@ -1319,8 +1340,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>43894</v>
       </c>
       <c r="B13" t="s">
@@ -1339,8 +1360,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>44136</v>
       </c>
       <c r="B14" t="s">
@@ -1354,9 +1375,33 @@
       </c>
       <c r="E14" t="s">
         <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiguan/Documents/website/guanh01.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F07557-0C95-A74F-B990-F052F078483D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BAD967-36E6-F14E-999A-08CF2F171F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="4400" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>pub_date</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Hui Guan, Wen Tang, Hamid Krim, James Keiser, Andrew Rindos, and Radmila Sazdanovic</t>
   </si>
   <si>
-    <t>A topological collapse for document summarization</t>
-  </si>
-  <si>
     <t>spawc</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Hui Guan, Xipeng Shen, and Hamid Krim</t>
   </si>
   <si>
-    <t>Egeria: a framework for automatic synthesis of HPC advising tools through multi-layered natural language processing</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>Randall Pittman, Hui Guan, Xipeng Shen, Seung-Hwan Lim, and Robert M. Patton</t>
   </si>
   <si>
-    <t>Exploring flexible communications for streamlining DNN ensemble training pipelines</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2018sc.pdf</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>Hui Guan, Xipeng Shen, and Seung-Hwan Lim</t>
   </si>
   <si>
-    <t>Wootz: a compiler-based framework for fast CNN pruning via composability</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2019pldi.pdf</t>
   </si>
   <si>
@@ -223,19 +211,46 @@
     <t>The ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (&lt;b&gt;ESEC/FSE&lt;/b&gt;), Sacramento, California, United States, November 2020. (acceptance rate: 101/360=28%) </t>
   </si>
   <si>
-    <t>An automatic synthesizer of advising tools for high performance computing</t>
-  </si>
-  <si>
     <t>IEEE Transactions on Parallel and Distributed Systems (&lt;b&gt;TPDS&lt;/b&gt;)</t>
   </si>
   <si>
     <t>tpds</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/9173796</t>
-  </si>
-  <si>
-    <t>https://2020.esec-fse.org/details/fse-2020-papers/7/HISyn-Human-Learning-Inspired-Natural-Language-Programming</t>
+    <t>A Topological Collapse for Document Summarization</t>
+  </si>
+  <si>
+    <t>Egeria: a Framework for Automatic Synthesis of HPC Advising Tools through Multi-Layered Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Exploring Flexible Communications for Streamlining DNN Ensemble Training Pipelines</t>
+  </si>
+  <si>
+    <t>Wootz: a Compiler-Based Framework for Fast CNN Pruning via Composability</t>
+  </si>
+  <si>
+    <t>An Automatic Synthesizer of Advising Tools for High Performance Computing</t>
+  </si>
+  <si>
+    <t>http://guanh01.github.io/files/2020tpds.pdf</t>
+  </si>
+  <si>
+    <t>http://guanh01.github.io/files/2020hisyn.pdf</t>
+  </si>
+  <si>
+    <t>Zifan Nan, Hui Guan, Xipeng Shen, and Chunhua Liao</t>
+  </si>
+  <si>
+    <t>Deep NLP-Based Co-Evolvement for Synthesizing Code Analysis from Natural Language</t>
+  </si>
+  <si>
+    <t>The ACM SIGPLAN 2021 International Conference on Compiler Construction (&lt;b&gt;CC 2021&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>http://guanh01.github.io/files/2021cc.pdf</t>
   </si>
 </sst>
 </file>
@@ -245,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,6 +399,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -683,7 +706,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -726,13 +749,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -766,6 +793,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1086,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1097,7 +1125,7 @@
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="4" max="4" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1121,286 +1149,311 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>42522</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>43053</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>43627</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>42705</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>42736</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43053</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43405</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43617</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43627</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43894</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="16" spans="1:6" ht="34">
+      <c r="A16" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{D7B64B95-9D14-1F4C-8997-3F0170E8D006}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{7C0B6682-E7FC-A240-A886-6C99B6750C8A}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{4054A136-F4CC-D544-8E1E-C1E6E1280599}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiguan/Documents/website/guanh01.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BAD967-36E6-F14E-999A-08CF2F171F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E01AAC1-4EC8-FE40-9E1E-A185DB1CB88E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="4400" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1260" windowWidth="34860" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>pub_date</t>
   </si>
@@ -91,9 +91,6 @@
     <t>TOP: A Compiler-Based Framework for Optimizing Machine Learning Algorithms through Generalized Triangle Inequality</t>
   </si>
   <si>
-    <t>SysML, Feb 16th, 2018, Stanford University, 2018 (Poster)</t>
-  </si>
-  <si>
     <t>top</t>
   </si>
   <si>
@@ -181,39 +178,6 @@
     <t>fse</t>
   </si>
   <si>
-    <t xml:space="preserve">Proceedings of the 38th ACM SIGPLAN Conference on Programming Language Design and Implementation (&lt;b&gt;PLDI&lt;/b&gt;), 2017. (Acceptance rate: 15% (47/322)) </t>
-  </si>
-  <si>
-    <t>Proceedings of the International Conference for High Performance Computing, Networking, Storage and Analysis (&lt;b&gt;SC&lt;/b&gt;), 2017. (Acceptance rate: 18% (61/327))</t>
-  </si>
-  <si>
-    <t>IEEE 17th International Workshop on Signal Processing Advances in Wireless Communications (&lt;b&gt;SPAWC&lt;/b&gt;), 2016.</t>
-  </si>
-  <si>
-    <t>34th International Conference on Data Engineering (&lt;b&gt;ICDE&lt;/b&gt;), 2018. (short paper) (Acceptance rate: 23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proceedings of the International Conference for High Performance Computing, Networking, Storage, and Analysis (&lt;b&gt;SC&lt;/b&gt;), 2018. (Acceptance rate: 23%) </t>
-  </si>
-  <si>
-    <t>35th International Conference on Data Engineering (&lt;b&gt;ICDE&lt;/b&gt;), 2019. (Acceptance rate: 18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proceedings of the 40th ACM SIGPLAN Conference on Programming Language Design and Implementation (&lt;b&gt;PLDI&lt;/b&gt;), 2019. (Acceptance rate: 27.7% (76/274)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advances in Neural Information Processing Systems (&lt;b&gt;NeurIPS&lt;/b&gt;),  2019. (Acceptance rate: 21.2% (1428/6743)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Conference on Machine Learning and Systems (&lt;b&gt;MLSys&lt;/b&gt;), March 2020, Austin, TX, USA. (Acceptance rate: 20% (34/170)) </t>
-  </si>
-  <si>
-    <t>The ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (&lt;b&gt;ESEC/FSE&lt;/b&gt;), Sacramento, California, United States, November 2020. (acceptance rate: 101/360=28%) </t>
-  </si>
-  <si>
-    <t>IEEE Transactions on Parallel and Distributed Systems (&lt;b&gt;TPDS&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>tpds</t>
   </si>
   <si>
@@ -244,13 +208,64 @@
     <t>Deep NLP-Based Co-Evolvement for Synthesizing Code Analysis from Natural Language</t>
   </si>
   <si>
-    <t>The ACM SIGPLAN 2021 International Conference on Compiler Construction (&lt;b&gt;CC 2021&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>cc</t>
   </si>
   <si>
     <t>http://guanh01.github.io/files/2021cc.pdf</t>
+  </si>
+  <si>
+    <t>Lijun Zhang, Hui Guan, Yufei Ding, Xipeng Shen, Hamid Krim</t>
+  </si>
+  <si>
+    <t>Reuse-centric k-means configuration</t>
+  </si>
+  <si>
+    <t>SysML, Feb 16th, 2018 (Poster)</t>
+  </si>
+  <si>
+    <t>kmeans</t>
+  </si>
+  <si>
+    <t>https://authors.elsevier.com/sd/article/S0306-4379(21)00043-0</t>
+  </si>
+  <si>
+    <t>Information Systems, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings of the 38th ACM SIGPLAN Conference on Programming Language Design and Implementation (&lt;b&gt;PLDI'17&lt;/b&gt;). (Acceptance rate: 15% (47/322)) </t>
+  </si>
+  <si>
+    <t>IEEE 17th International Workshop on Signal Processing Advances in Wireless Communications (&lt;b&gt;SPAWC'16&lt;/b&gt;).</t>
+  </si>
+  <si>
+    <t>Proceedings of the International Conference for High Performance Computing, Networking, Storage and Analysis (&lt;b&gt;SC'17&lt;/b&gt;). (Acceptance rate: 18% (61/327))</t>
+  </si>
+  <si>
+    <t>34th International Conference on Data Engineering (&lt;b&gt;ICDE'18&lt;/b&gt;). (short paper) (Acceptance rate: 23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings of the International Conference for High Performance Computing, Networking, Storage, and Analysis (&lt;b&gt;SC'18&lt;/b&gt;). (Acceptance rate: 23%) </t>
+  </si>
+  <si>
+    <t>35th International Conference on Data Engineering (&lt;b&gt;ICDE'19&lt;/b&gt;). (Acceptance rate: 18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings of the 40th ACM SIGPLAN Conference on Programming Language Design and Implementation (&lt;b&gt;PLDI'19&lt;/b&gt;). (Acceptance rate: 27.7% (76/274)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advances in Neural Information Processing Systems (&lt;b&gt;NeurIPS'19&lt;/b&gt;). (Acceptance rate: 21.2% (1428/6743)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Conference on Machine Learning and Systems (&lt;b&gt;MLSys'20&lt;/b&gt;). (Acceptance rate: 20% (34/170)) </t>
+  </si>
+  <si>
+    <t>The ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (&lt;b&gt;ESEC/FSE'20&lt;/b&gt;). (acceptance rate: 101/360=28%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE Transactions on Parallel and Distributed Systems (&lt;b&gt;TPDS 2020&lt;/b&gt;). </t>
+  </si>
+  <si>
+    <t>The ACM SIGPLAN 2021 International Conference on Compiler Construction (&lt;b&gt;CC'21&lt;/b&gt;)</t>
   </si>
 </sst>
 </file>
@@ -1114,18 +1129,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="63.5" customWidth="1"/>
+    <col min="2" max="2" width="90.5" customWidth="1"/>
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
-    <col min="4" max="4" width="90.6640625" customWidth="1"/>
+    <col min="4" max="4" width="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1156,10 +1171,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1199,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1216,10 +1231,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1239,13 +1254,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1253,19 +1268,19 @@
         <v>43344</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1273,19 +1288,19 @@
         <v>43405</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1293,19 +1308,19 @@
         <v>43617</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1313,19 +1328,19 @@
         <v>43627</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1333,19 +1348,19 @@
         <v>43808</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1353,19 +1368,19 @@
         <v>43808</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1373,19 +1388,19 @@
         <v>43894</v>
       </c>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1393,19 +1408,19 @@
         <v>44136</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1416,16 +1431,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34">
@@ -1433,20 +1448,43 @@
         <v>44197</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiguan/Documents/website/guanh01.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E01AAC1-4EC8-FE40-9E1E-A185DB1CB88E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DBC44F-BDA2-484A-9896-C894B63ABD96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1260" windowWidth="34860" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>pub_date</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>Lijun Zhang, Hui Guan, Yufei Ding, Xipeng Shen, Hamid Krim</t>
-  </si>
-  <si>
-    <t>Reuse-centric k-means configuration</t>
   </si>
   <si>
     <t>SysML, Feb 16th, 2018 (Poster)</t>
@@ -1132,7 +1129,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1174,7 +1171,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1214,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1234,7 +1231,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1254,7 +1251,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -1274,7 +1271,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1294,7 +1291,7 @@
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1314,7 +1311,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1334,7 +1331,7 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1354,7 +1351,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1394,7 +1391,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
@@ -1414,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -1434,7 +1431,7 @@
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>52</v>
@@ -1454,7 +1451,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
@@ -1471,16 +1468,16 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiguan/Documents/website/guanh01.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DBC44F-BDA2-484A-9896-C894B63ABD96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C5BD8-138D-8442-A030-AEB95202BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1260" windowWidth="34860" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11140" yWindow="2200" windowWidth="34680" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>pub_date</t>
   </si>
@@ -70,18 +70,12 @@
     <t>Generalizations of the Theory and Deployment of Triangular Inequality for Compiler-Based Strength Reduction</t>
   </si>
   <si>
-    <t>pldi</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2017pldi.pdf</t>
   </si>
   <si>
     <t>Hui Guan, Xipeng Shen, and Hamid Krim</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2017sc.pdf</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>TOP: A Compiler-Based Framework for Optimizing Machine Learning Algorithms through Generalized Triangle Inequality</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2018top.pdf</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Reuse-Centric K-Means Configuration</t>
   </si>
   <si>
-    <t>icde</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2018icde.pdf</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>In-Place Zero-Space Memory Protection for CNN</t>
   </si>
   <si>
-    <t>nips</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2019nips.pdf</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>MLSys Workshop on Systems for ML @ NeurIPS, 2019 (Poster)</t>
   </si>
   <si>
-    <t>fb</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2019fb.pdf</t>
   </si>
   <si>
@@ -163,9 +145,6 @@
     <t>FLEET: Flexible Efficient Ensemble Training for Heterogeneous Deep Neural Networks</t>
   </si>
   <si>
-    <t>mlsys</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2020mlsys.pdf</t>
   </si>
   <si>
@@ -175,12 +154,6 @@
     <t>HISyn: Human Learning-Inspired Natural Language Programming</t>
   </si>
   <si>
-    <t>fse</t>
-  </si>
-  <si>
-    <t>tpds</t>
-  </si>
-  <si>
     <t>A Topological Collapse for Document Summarization</t>
   </si>
   <si>
@@ -208,9 +181,6 @@
     <t>Deep NLP-Based Co-Evolvement for Synthesizing Code Analysis from Natural Language</t>
   </si>
   <si>
-    <t>cc</t>
-  </si>
-  <si>
     <t>http://guanh01.github.io/files/2021cc.pdf</t>
   </si>
   <si>
@@ -220,9 +190,6 @@
     <t>SysML, Feb 16th, 2018 (Poster)</t>
   </si>
   <si>
-    <t>kmeans</t>
-  </si>
-  <si>
     <t>https://authors.elsevier.com/sd/article/S0306-4379(21)00043-0</t>
   </si>
   <si>
@@ -263,6 +230,78 @@
   </si>
   <si>
     <t>The ACM SIGPLAN 2021 International Conference on Compiler Construction (&lt;b&gt;CC'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>Xin Zhao, Jin Zhou, Hui Guan, Wei Wang, Xu Liu, Tongping Liu</t>
+  </si>
+  <si>
+    <t>NumaPerf: Predictive NUMA Profiling</t>
+  </si>
+  <si>
+    <t>Proceedings of International Conference on Supercomputing (&lt;b&gt;ICS'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>http://guanh01.github.io/files/2021ics.pdf</t>
+  </si>
+  <si>
+    <t>21ics</t>
+  </si>
+  <si>
+    <t>2020tpds</t>
+  </si>
+  <si>
+    <t>2021cc</t>
+  </si>
+  <si>
+    <t>2021kmeans</t>
+  </si>
+  <si>
+    <t>2020fse</t>
+  </si>
+  <si>
+    <t>2020mlsys</t>
+  </si>
+  <si>
+    <t>2019fb</t>
+  </si>
+  <si>
+    <t>2019nips</t>
+  </si>
+  <si>
+    <t>2019pldi</t>
+  </si>
+  <si>
+    <t>2019icde</t>
+  </si>
+  <si>
+    <t>2018sc</t>
+  </si>
+  <si>
+    <t>2018icde</t>
+  </si>
+  <si>
+    <t>2018top</t>
+  </si>
+  <si>
+    <t>2017sc</t>
+  </si>
+  <si>
+    <t>2017pldi</t>
+  </si>
+  <si>
+    <t>CoCoPIE: Enabling Real-Time AI on Off-the-Shelf Mobile Devices via Compression-Compilation Co-Design</t>
+  </si>
+  <si>
+    <t>Hui Guan, Shaoshan Liu, Xiaolong Ma, Wei Niu, Bin Ren, Xipeng Shen, Yanzhi Wang, Pu Zhao</t>
+  </si>
+  <si>
+    <t>2021CACM</t>
+  </si>
+  <si>
+    <t>https://cacm.acm.org/magazines/2021/6/252819-cocopie/fulltext</t>
+  </si>
+  <si>
+    <t>Communications of the ACM, 2021</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1168,10 +1207,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1211,13 +1250,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1225,19 +1264,19 @@
         <v>43053</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1245,19 +1284,19 @@
         <v>43132</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,19 +1304,19 @@
         <v>43344</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1285,19 +1324,19 @@
         <v>43405</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1305,19 +1344,19 @@
         <v>43617</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1325,19 +1364,19 @@
         <v>43627</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1345,19 +1384,19 @@
         <v>43808</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1365,19 +1404,19 @@
         <v>43808</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1385,19 +1424,19 @@
         <v>43894</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1405,19 +1444,19 @@
         <v>44136</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1425,19 +1464,19 @@
         <v>44136</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34">
@@ -1445,19 +1484,19 @@
         <v>44197</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1465,29 +1504,68 @@
         <v>44287</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F15" r:id="rId1" xr:uid="{D7B64B95-9D14-1F4C-8997-3F0170E8D006}"/>
     <hyperlink ref="F14" r:id="rId2" xr:uid="{7C0B6682-E7FC-A240-A886-6C99B6750C8A}"/>
     <hyperlink ref="F16" r:id="rId3" xr:uid="{4054A136-F4CC-D544-8E1E-C1E6E1280599}"/>
+    <hyperlink ref="F18" r:id="rId4" xr:uid="{62B309C3-2115-E34E-B340-E824F9E665E5}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{221C069A-CB82-0148-81C7-D280ABA6C2D8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiguan/Documents/website/guanh01.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C5BD8-138D-8442-A030-AEB95202BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0956ADD0-A511-4940-AA0C-3BA8BBECC755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="2200" windowWidth="34680" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6740" yWindow="1200" windowWidth="34680" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>pub_date</t>
   </si>
@@ -302,6 +302,21 @@
   </si>
   <si>
     <t>Communications of the ACM, 2021</t>
+  </si>
+  <si>
+    <t>Marco Serafini, Hui Guan</t>
+  </si>
+  <si>
+    <t>Scalable Graph Neural Network Training: The Case for Sampling</t>
+  </si>
+  <si>
+    <t>2021sampling</t>
+  </si>
+  <si>
+    <t>http://guanh01.github.io/files/2021sampling.pdf</t>
+  </si>
+  <si>
+    <t>ACM SIGOPS Operating Systems Review, 2021</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1559,6 +1574,26 @@
         <v>92</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F15" r:id="rId1" xr:uid="{D7B64B95-9D14-1F4C-8997-3F0170E8D006}"/>
@@ -1566,6 +1601,7 @@
     <hyperlink ref="F16" r:id="rId3" xr:uid="{4054A136-F4CC-D544-8E1E-C1E6E1280599}"/>
     <hyperlink ref="F18" r:id="rId4" xr:uid="{62B309C3-2115-E34E-B340-E824F9E665E5}"/>
     <hyperlink ref="F19" r:id="rId5" xr:uid="{221C069A-CB82-0148-81C7-D280ABA6C2D8}"/>
+    <hyperlink ref="F20" r:id="rId6" xr:uid="{58D21C37-2E3C-6045-AE9C-A16027D0A6A2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
